--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -190,8 +256,8 @@
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.1796875" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35666902557478625</v>
+        <v>0.35803172283809664</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32336718919333107</v>
+        <v>0.32441921910040877</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.020771005456952745</v>
+        <v>-0.020850342990136762</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0049748490615070164</v>
+        <v>-0.0050559081910599929</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00062997055343956413</v>
+        <v>-0.0007180090807009491</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0058883236059614754</v>
+        <v>0.0058852254117251384</v>
       </c>
       <c r="H3" s="0">
-        <v>0.001477927455063888</v>
+        <v>0.0014779881212820701</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.017150968146604783</v>
+        <v>-0.017210167516011763</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0028587057760235957</v>
+        <v>0.0028587105072143681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33623788175460839</v>
+        <v>0.33871481319809849</v>
       </c>
       <c r="C4" s="0">
-        <v>0.036114065877004935</v>
+        <v>0.037584943393469128</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00095697801847688922</v>
+        <v>0.00095419891471768535</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00042617425107896304</v>
+        <v>-0.00043385831710949076</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00072414759276786937</v>
+        <v>0.00071811316639798224</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.025188518532589965</v>
+        <v>-0.025238268683045323</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00054489756032537694</v>
+        <v>0.00056520748527336855</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00014529629637116681</v>
+        <v>0.00014525813798638154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.32990670205216055</v>
+        <v>0.33303837312012863</v>
       </c>
       <c r="C5" s="0">
-        <v>0.10661956780284701</v>
+        <v>0.10837641500756059</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.065057543952156363</v>
+        <v>-0.065920123911742387</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00044433008213907196</v>
+        <v>-0.00044721766904077436</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.020329111633690475</v>
+        <v>-0.020528872837830722</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.015122921965919748</v>
+        <v>-0.015151931277146908</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0018197701504973417</v>
+        <v>-0.0018307581827844018</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.010054382169319915</v>
+        <v>-0.010051249233989583</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00012268755157196498</v>
+        <v>-0.00012270197299568686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41719945938163205</v>
+        <v>0.41859258792155474</v>
       </c>
       <c r="C6" s="0">
-        <v>0.083891118183005514</v>
+        <v>0.082155157599970066</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0038485824625646872</v>
+        <v>-0.0038495691470361486</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0031033434097912146</v>
+        <v>0.0030919005347437244</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0016401990803235761</v>
+        <v>0.0016523425949918399</v>
       </c>
       <c r="I6" s="0">
-        <v>3.4955999137516354e-05</v>
+        <v>3.2669063740347996e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0024717231197783907</v>
+        <v>0.0024717141550162913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46375716600447425</v>
+        <v>0.46291474502950281</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.019855216182661152</v>
+        <v>0.018725842152795668</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0088153789068496149</v>
+        <v>-0.0089477585912688239</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00084759705420228183</v>
+        <v>-0.0018569273602913811</v>
       </c>
       <c r="G7" s="0">
-        <v>0.01833835043701602</v>
+        <v>0.018379647315619144</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0017628568335326697</v>
+        <v>0.0017570818416337217</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.016264259130684244</v>
+        <v>0.016264271749459769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12781479394984441</v>
+        <v>0.12914450367230632</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.28964830432081989</v>
+        <v>-0.28759318209023621</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00036544964710285416</v>
+        <v>-0.00036538784589185065</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0029869254145980816</v>
+        <v>0.0029881072297135362</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.00090389592953193985</v>
+        <v>0.0009024479510256157</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.049301429160965297</v>
+        <v>-0.04918421646556044</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00051801026987186027</v>
+        <v>-0.00051801013624719339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.070862821812707727</v>
+        <v>0.072640882065478835</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.088891034843801398</v>
+        <v>-0.088581791935331777</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0037076183285084693</v>
+        <v>0.0037466307495547945</v>
       </c>
       <c r="F9" s="0">
-        <v>0.015690619909328189</v>
+        <v>0.015889177425760421</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0045432460586699672</v>
+        <v>0.0044318096337087678</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00035513710245672003</v>
+        <v>0.00036593117511360591</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0062457521455676753</v>
+        <v>0.006247936228029086</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0013966891621337019</v>
+        <v>0.0013966851163376426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.22025805878625909</v>
+        <v>0.225721808646204</v>
       </c>
       <c r="C10" s="0">
-        <v>0.18073951638014876</v>
+        <v>0.18450539919652911</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00038677680465409598</v>
+        <v>-0.00038670275959956787</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0013985126321276371</v>
+        <v>0.0014007031260898748</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00036881580599037241</v>
+        <v>-0.00036882825622278173</v>
       </c>
       <c r="I10" s="0">
-        <v>0.015770504101173297</v>
+        <v>0.015606097729508142</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.04537479940406039</v>
+        <v>-0.045292896107787937</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.002382904125193458</v>
+        <v>-0.0023828463477916506</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.43651004178705355</v>
+        <v>0.4426047535069747</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.13551987057768522</v>
+        <v>0.13526485866657129</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0024887456619673135</v>
+        <v>-0.0024106126553314292</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0028439206306360206</v>
+        <v>0.0033732158567832213</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.002295352849899103</v>
+        <v>-0.0022834126738595154</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0030468548032058689</v>
+        <v>-0.0030294172396428841</v>
       </c>
       <c r="I11" s="0">
-        <v>0.11035062162361614</v>
+        <v>0.11059977466786804</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.024631476516070644</v>
+        <v>-0.024631461761618012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.18632258454614162</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.19863544576429448</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.00036603963362944538</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.00011085146520785409</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-9.0154193706881404e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.036034833141970035</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.021266547692440074</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35803172283809664</v>
+        <v>0.35710066291151343</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32441921910040877</v>
+        <v>0.32352697562506927</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.020850342990136762</v>
+        <v>-0.020881818206525429</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0050559081910599929</v>
+        <v>-0.005002215581753895</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0007180090807009491</v>
+        <v>-0.00064522281110679207</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0058852254117251384</v>
+        <v>0.0058921118834665658</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0014779881212820701</v>
+        <v>0.0014776250187392751</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.017210167516011763</v>
+        <v>-0.01727287664316245</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0028587105072143681</v>
+        <v>0.0028587090538985671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33871481319809849</v>
+        <v>0.34300903103780944</v>
       </c>
       <c r="C4" s="0">
-        <v>0.037584943393469128</v>
+        <v>0.042845239943756025</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00095419891471768535</v>
+        <v>0.00095511076416998663</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00043385831710949076</v>
+        <v>-0.00043104658566983103</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00071811316639798224</v>
+        <v>0.00071549776540021982</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.025238268683045323</v>
+        <v>-0.025312716364035537</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00056520748527336855</v>
+        <v>0.00056483900666227569</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00014525813798638154</v>
+        <v>0.0001451308824570452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33303837312012863</v>
+        <v>0.33336581152056538</v>
       </c>
       <c r="C5" s="0">
-        <v>0.10837641500756059</v>
+        <v>0.10426460948974958</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.065920123911742387</v>
+        <v>-0.065892715091657075</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00044721766904077436</v>
+        <v>-0.0004436328897468192</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.020528872837830722</v>
+        <v>-0.020310226017542583</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.015151931277146908</v>
+        <v>-0.015268293603170304</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0018307581827844018</v>
+        <v>-0.0018190915263528883</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.010051249233989583</v>
+        <v>-0.010051220874492992</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00012270197299568686</v>
+        <v>-0.00012264900403097245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41859258792155474</v>
+        <v>0.42114465737006229</v>
       </c>
       <c r="C6" s="0">
-        <v>0.082155157599970066</v>
+        <v>0.084379613200118192</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0038495691470361486</v>
+        <v>-0.003849911096275061</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0030919005347437244</v>
+        <v>0.0030709171549036514</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0016523425949918399</v>
+        <v>0.0016452160748366812</v>
       </c>
       <c r="I6" s="0">
-        <v>3.2669063740347996e-05</v>
+        <v>6.1311695376169931e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0024717141550162913</v>
+        <v>0.0024716988205372714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46291474502950281</v>
+        <v>0.46395992007696207</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.018725842152795668</v>
+        <v>0.017951322686660911</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0089477585912688239</v>
+        <v>-0.0090533774475902769</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0018569273602913811</v>
+        <v>-0.0025391156142641072</v>
       </c>
       <c r="G7" s="0">
-        <v>0.018379647315619144</v>
+        <v>0.018439105883088169</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0017570818416337217</v>
+        <v>0.0017530524073207379</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.016264271749459769</v>
+        <v>0.016264274791684352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12914450367230632</v>
+        <v>0.11673315188799924</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.28759318209023621</v>
+        <v>-0.30121049746112843</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00036538784589185065</v>
+        <v>-0.00036485952624053171</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0029881072297135362</v>
+        <v>0.0029910953703955251</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>0.0009024479510256157</v>
+        <v>0.00090368106301478679</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.04918421646556044</v>
+        <v>-0.049028263345862716</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00051801013624719339</v>
+        <v>-0.00051792428914143596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.072640882065478835</v>
+        <v>0.061438342422034026</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.088581791935331777</v>
+        <v>-0.087676041839854363</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0037466307495547945</v>
+        <v>0.0037705318341362611</v>
       </c>
       <c r="F9" s="0">
-        <v>0.015889177425760421</v>
+        <v>0.015994303993817918</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0044318096337087678</v>
+        <v>0.0045966958828656656</v>
       </c>
       <c r="H9" s="0">
-        <v>0.00036593117511360591</v>
+        <v>0.00037256399707177401</v>
       </c>
       <c r="I9" s="0">
-        <v>0.006247936228029086</v>
+        <v>0.0062504742480270232</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0013966851163376426</v>
+        <v>0.0013966624179705123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.225721808646204</v>
+        <v>0.2177309792665402</v>
       </c>
       <c r="C10" s="0">
-        <v>0.18450539919652911</v>
+        <v>0.18711955707411934</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00038670275959956787</v>
+        <v>-0.00038596284414804368</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0014007031260898748</v>
+        <v>0.00142768380968087</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00036882825622278173</v>
+        <v>-0.00036843629169696306</v>
       </c>
       <c r="I10" s="0">
-        <v>0.015606097729508142</v>
+        <v>0.015788694592219928</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.045292896107787937</v>
+        <v>-0.044906021873383065</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0023828463477916506</v>
+        <v>-0.0023828776222858672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.4426047535069747</v>
+        <v>0.43901393916800868</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.13526485866657129</v>
+        <v>0.13727470726241825</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0024106126553314292</v>
+        <v>-0.0022347251992110291</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0033732158567832213</v>
+        <v>0.0044165107138809815</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0022834126738595154</v>
+        <v>-0.002159834390101225</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0030294172396428841</v>
+        <v>-0.0029927412120255626</v>
       </c>
       <c r="I11" s="0">
-        <v>0.11059977466786804</v>
+        <v>0.11161053682467098</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.024631461761618012</v>
+        <v>-0.024631494098163925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.18632258454614162</v>
+        <v>0.16155046870766229</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.19863544576429448</v>
+        <v>-0.2431405438855736</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.00036603963362944538</v>
+        <v>-0.00036842297518628364</v>
       </c>
       <c r="F12" s="0">
-        <v>0.00011085146520785409</v>
+        <v>-0.014289741622577205</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-9.0154193706881404e-05</v>
+        <v>-0.0063006781077742493</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.036034833141970035</v>
+        <v>0.0077484753393557999</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.021266547692440074</v>
+        <v>-0.021112559208590898</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.28520205521184461</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.10404041554463331</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.05267709025315899</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.054446203691934821</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0038599811508551181</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.004833901494311019</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0048955940651266147</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.22005337420145729</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.26813067196997353</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.032710555851198253</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0002161216340896335</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00038165614128004622</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-7.369981038076652e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.049015135589958583</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-9.5325917360278289e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.35710066291151343</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.32352697562506927</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.34300903103780944</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.33336581152056538</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.42114465737006229</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.46395992007696207</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.11673315188799924</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.061438342422034026</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.2177309792665402</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.43901393916800868</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.16155046870766229</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.28520205521184461</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.26813067196997353</v>
+        <v>0.27742503091431409</v>
       </c>
       <c r="C14" s="0">
-        <v>0.032710555851198253</v>
+        <v>0.0520848293793547</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0002161216340896335</v>
+        <v>-0.00020938596849090884</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00038165614128004622</v>
+        <v>-0.0032596189657070726</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-7.369981038076652e-05</v>
+        <v>-0.0093036476291662867</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.049015135589958583</v>
+        <v>-0.031010453811934929</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-9.5325917360278289e-05</v>
+        <v>-0.016078747301586038</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.20867985608371148</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.35427274660105346</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0039353135632965433</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.040857862029324163</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0017354810301082664</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.170490169893108</v>
       </c>
     </row>
   </sheetData>
